--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3327.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3327.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9255465621955813</v>
+        <v>2.03377890586853</v>
       </c>
       <c r="B1">
-        <v>1.483968699030133</v>
+        <v>4.708751678466797</v>
       </c>
       <c r="C1">
-        <v>4.113544537439662</v>
+        <v>3.541271448135376</v>
       </c>
       <c r="D1">
-        <v>5.58813905532287</v>
+        <v>0.9001575112342834</v>
       </c>
       <c r="E1">
-        <v>1.652431538633404</v>
+        <v>0.4726637303829193</v>
       </c>
     </row>
   </sheetData>
